--- a/v3 - WIP/Spreadsheet.xlsx
+++ b/v3 - WIP/Spreadsheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\FXOSChassisOrchestrator\FXOSChassisOrchestrator\v3 - WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BE7826-D1A8-4872-953A-D9A673ADD00F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB2EA15-0E3E-4331-8737-F37FCAE14B72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FXOS DC1 Settings" sheetId="1" r:id="rId1"/>
+    <sheet name="FXOS DC2 Settings" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="51">
   <si>
     <t># DNS Configuration</t>
   </si>
@@ -175,6 +176,9 @@
   </si>
   <si>
     <t>25.1.1.1</t>
+  </si>
+  <si>
+    <t>7092334a7809ab9873124c08123df9097097fe72</t>
   </si>
 </sst>
 </file>
@@ -504,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +517,7 @@
     <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="15.140625" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="15.140625" customWidth="1"/>
@@ -560,6 +564,12 @@
       <c r="B7" t="s">
         <v>49</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -794,4 +804,306 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445379A9-8169-420D-A49E-59465E9BC01F}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="2">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="2">
+        <v>162</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C12" xr:uid="{FD419482-87E7-4548-94A1-C22299A8ECF1}">
+      <formula1>$O$15:$P$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:G12" xr:uid="{74A0F377-9716-4D9C-9369-82EC4BAE293E}">
+      <formula1>$O$14:$P$14</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F12" xr:uid="{DCE2CD83-6138-4231-95AF-BFCA27A265B8}">
+      <formula1>$O$13:$T$13</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E12" xr:uid="{1DBEE503-78B5-406E-A29C-ACF92DAA4D75}">
+      <formula1>$O$12:$P$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D12" xr:uid="{4DE30339-F16B-45DC-A87F-8E549B4DA7DC}">
+      <formula1>$O$11:$S$11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16:H18" xr:uid="{EED145AE-BC07-44AF-AA6F-85E1F4E6CBCC}">
+      <formula1>$O$6:$P$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G18" xr:uid="{7F276BF9-BE40-4AF6-998D-2FD082D46878}">
+      <formula1>$O$3:$Q$3</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/v3 - WIP/Spreadsheet.xlsx
+++ b/v3 - WIP/Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\FXOSChassisOrchestrator\FXOSChassisOrchestrator\v3 - WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF056F6-1E25-40D0-BC05-0964B00EFD73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E759EF1D-7207-4802-9697-25A6D42690D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="103">
   <si>
     <t># DNS Configuration</t>
   </si>
@@ -325,6 +325,15 @@
   </si>
   <si>
     <t>SNMP Trap</t>
+  </si>
+  <si>
+    <t>SNMP Community/Username</t>
+  </si>
+  <si>
+    <t>CiscoCommuntiy</t>
+  </si>
+  <si>
+    <t>10.10.1.1</t>
   </si>
 </sst>
 </file>
@@ -655,16 +664,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.140625" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="15.140625" customWidth="1"/>
@@ -1065,9 +1075,15 @@
         <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="2"/>
@@ -1079,12 +1095,39 @@
       <c r="B23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="3">
+        <v>162</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F24" s="2"/>
+      <c r="A24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="3">
+        <v>162</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">

--- a/v3 - WIP/Spreadsheet.xlsx
+++ b/v3 - WIP/Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\FXOSChassisOrchestrator\FXOSChassisOrchestrator\v3 - WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E759EF1D-7207-4802-9697-25A6D42690D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E39E32-A6B6-4E9F-B8BF-5B9E7979162C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="121">
   <si>
     <t># DNS Configuration</t>
   </si>
@@ -135,9 +135,6 @@
     <t>traps</t>
   </si>
   <si>
-    <t># Syslog Configuration</t>
-  </si>
-  <si>
     <t>Syslog Entry Name</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>Facility Level</t>
   </si>
   <si>
-    <t>Syslog</t>
-  </si>
-  <si>
     <t>Syslog1</t>
   </si>
   <si>
@@ -333,7 +327,67 @@
     <t>CiscoCommuntiy</t>
   </si>
   <si>
-    <t>10.10.1.1</t>
+    <t>20.1.1.1</t>
+  </si>
+  <si>
+    <t>Syslog2</t>
+  </si>
+  <si>
+    <t># Syslog Server Configuration</t>
+  </si>
+  <si>
+    <t>Syslog Server</t>
+  </si>
+  <si>
+    <t># Syslog Local Configuration</t>
+  </si>
+  <si>
+    <t># Syslog Local Sources Configuration</t>
+  </si>
+  <si>
+    <t>Syslog Local Sources</t>
+  </si>
+  <si>
+    <t>Syslog Local</t>
+  </si>
+  <si>
+    <t>Console Enabled/Disabled</t>
+  </si>
+  <si>
+    <t>Monitor Enabled/Disabled</t>
+  </si>
+  <si>
+    <t>Console Level</t>
+  </si>
+  <si>
+    <t>Monitor Level</t>
+  </si>
+  <si>
+    <t>File Enabled/Disabled</t>
+  </si>
+  <si>
+    <t>Syslog File Name</t>
+  </si>
+  <si>
+    <t>syslog_file</t>
+  </si>
+  <si>
+    <t>File Level</t>
+  </si>
+  <si>
+    <t>File Size (bytes)</t>
+  </si>
+  <si>
+    <t>Faults</t>
+  </si>
+  <si>
+    <t>Audits</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>wefd</t>
   </si>
 </sst>
 </file>
@@ -662,22 +716,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.140625" customWidth="1"/>
+    <col min="5" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
     <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
@@ -691,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s">
         <v>34</v>
       </c>
       <c r="N1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -711,13 +766,13 @@
         <v>2</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
         <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -728,42 +783,42 @@
         <v>3</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" t="s">
         <v>53</v>
-      </c>
-      <c r="L3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" t="s">
         <v>56</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>57</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>58</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>59</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>60</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" t="s">
         <v>61</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>62</v>
-      </c>
-      <c r="R4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -771,31 +826,31 @@
         <v>4</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" t="s">
         <v>64</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>65</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>66</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>67</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>68</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>69</v>
       </c>
-      <c r="Q5" t="s">
-        <v>70</v>
-      </c>
-      <c r="R5" t="s">
-        <v>71</v>
-      </c>
       <c r="S5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -806,22 +861,22 @@
         <v>6</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
       </c>
       <c r="M6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
         <v>73</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>74</v>
-      </c>
-      <c r="O6" t="s">
-        <v>75</v>
-      </c>
-      <c r="P6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -829,19 +884,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M7" t="s">
         <v>18</v>
@@ -849,25 +904,25 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" t="s">
         <v>78</v>
-      </c>
-      <c r="L8" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" t="s">
-        <v>80</v>
       </c>
       <c r="N8" t="s">
         <v>19</v>
       </c>
       <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" t="s">
         <v>81</v>
-      </c>
-      <c r="P8" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -877,13 +932,13 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L9" t="s">
         <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -895,18 +950,18 @@
         <v>16</v>
       </c>
       <c r="M10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K11" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1008,7 +1063,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>28</v>
@@ -1023,16 +1078,16 @@
         <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1040,7 +1095,7 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
@@ -1052,16 +1107,16 @@
         <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1069,13 +1124,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>27</v>
@@ -1090,13 +1145,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="D23" s="3">
         <v>162</v>
@@ -1111,13 +1166,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="D24" s="3">
         <v>162</v>
@@ -1130,45 +1185,166 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="1" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C33" t="s">
         <v>41</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D33" t="s">
         <v>42</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E33" t="s">
         <v>43</v>
       </c>
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s">
-        <v>45</v>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G24" xr:uid="{4D867D4C-441E-4792-9F44-EEB51DA50801}">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G24:G25 G28:G31" xr:uid="{4D867D4C-441E-4792-9F44-EEB51DA50801}">
       <formula1>$O$3:$Q$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H24" xr:uid="{A569C039-289D-497F-BFEA-3A53B826ABA1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H24:H25 H28:H31" xr:uid="{A569C039-289D-497F-BFEA-3A53B826ABA1}">
       <formula1>$O$6:$P$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:E16" xr:uid="{59EC7811-7440-48D3-8F7C-1C7F3EA99C4D}">
@@ -1192,6 +1368,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21:H23" xr:uid="{01B1484D-D7BE-4F28-AD47-7FAAA0604856}">
       <formula1>$L$2:$M$2</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:C34" xr:uid="{0B01C6EB-92F5-4ACE-BBC4-DC3ED2740691}">
+      <formula1>$L$4:$S$4</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/v3 - WIP/Spreadsheet.xlsx
+++ b/v3 - WIP/Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\FXOSChassisOrchestrator\FXOSChassisOrchestrator\v3 - WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E39E32-A6B6-4E9F-B8BF-5B9E7979162C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5351DB33-3281-417F-8B6C-0CCBE128AD1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="138">
   <si>
     <t># DNS Configuration</t>
   </si>
@@ -387,7 +387,58 @@
     <t>Events</t>
   </si>
   <si>
-    <t>wefd</t>
+    <t># Radius Server Configuration</t>
+  </si>
+  <si>
+    <t>RADIUS</t>
+  </si>
+  <si>
+    <t>30.1.1.1</t>
+  </si>
+  <si>
+    <t>Auth Port</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>radiuskey123</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Retries</t>
+  </si>
+  <si>
+    <t>Timeout</t>
+  </si>
+  <si>
+    <t>40.1.1.1</t>
+  </si>
+  <si>
+    <t>radiuskey1234</t>
+  </si>
+  <si>
+    <t># TACACS+ Server Configuration</t>
+  </si>
+  <si>
+    <t>TACACS+</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>tacacskey123</t>
+  </si>
+  <si>
+    <t>50.1.1.1</t>
+  </si>
+  <si>
+    <t>60.1.1.1</t>
+  </si>
+  <si>
+    <t>tacacskey1234</t>
   </si>
 </sst>
 </file>
@@ -716,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,7 +1327,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>16</v>
@@ -1305,7 +1356,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -1322,7 +1373,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -1337,6 +1388,135 @@
       </c>
       <c r="E34" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37">
+        <v>1812</v>
+      </c>
+      <c r="D37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38">
+        <v>1812</v>
+      </c>
+      <c r="D38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42">
+        <v>490</v>
+      </c>
+      <c r="D42" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/v3 - WIP/Spreadsheet.xlsx
+++ b/v3 - WIP/Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\FXOSChassisOrchestrator\FXOSChassisOrchestrator\v3 - WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5351DB33-3281-417F-8B6C-0CCBE128AD1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD4A6A2-41EF-4D5D-B67E-E12D51113D75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="150">
   <si>
     <t># DNS Configuration</t>
   </si>
@@ -439,6 +439,42 @@
   </si>
   <si>
     <t>tacacskey1234</t>
+  </si>
+  <si>
+    <t>Address Range</t>
+  </si>
+  <si>
+    <t>Prefix Length</t>
+  </si>
+  <si>
+    <t>100.1.1.0</t>
+  </si>
+  <si>
+    <t>200.1.1.0</t>
+  </si>
+  <si>
+    <t>150.1.1.0</t>
+  </si>
+  <si>
+    <t>250.1.1.0</t>
+  </si>
+  <si>
+    <t>125.1.1.0</t>
+  </si>
+  <si>
+    <t>225.1.1.0</t>
+  </si>
+  <si>
+    <t>HTTPS ACL</t>
+  </si>
+  <si>
+    <t>SSH ACL</t>
+  </si>
+  <si>
+    <t>SNMP ACL</t>
+  </si>
+  <si>
+    <t># Access List Restrictions (leave blank if none required)</t>
   </si>
 </sst>
 </file>
@@ -767,15 +803,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
@@ -1517,6 +1553,83 @@
       </c>
       <c r="F42">
         <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
